--- a/conexoes_hive.xlsx
+++ b/conexoes_hive.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlnco\Google Drive\DTI\People analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlnco\Google Drive\Udacity\Data Scientist\1st module\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C28A0DB-80B0-4EBD-BE0E-E9711F00E219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A94251-399A-43ED-9C10-8AF2D80FD321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37710" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18735" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hive" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,8 +31,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="71">
   <si>
     <t xml:space="preserve">Luana Ferreira Ribeiro </t>
   </si>
@@ -139,6 +162,111 @@
   </si>
   <si>
     <t xml:space="preserve">Tainara Camila Zacarias </t>
+  </si>
+  <si>
+    <t>Emilly Milena Mariana Corte Real</t>
+  </si>
+  <si>
+    <t>Arthur Benício Duarte</t>
+  </si>
+  <si>
+    <t>Geraldo Marcos Vinicius Igor Caldeira</t>
+  </si>
+  <si>
+    <t>Vicente Marcos Marcelo Santos</t>
+  </si>
+  <si>
+    <t>Antônia Lorena Raimunda Araújo</t>
+  </si>
+  <si>
+    <t>Marina Stefany Vieira</t>
+  </si>
+  <si>
+    <t>Lucca Calebe Caldeira</t>
+  </si>
+  <si>
+    <t>Igor Yago da Mota</t>
+  </si>
+  <si>
+    <t>Vitor Martin Souza</t>
+  </si>
+  <si>
+    <t>Diego Thiago Cavalcanti</t>
+  </si>
+  <si>
+    <t>Alexandre Matheus Gomes</t>
+  </si>
+  <si>
+    <t>Geraldo Tiago José Cavalcanti</t>
+  </si>
+  <si>
+    <t>Sarah Isabela Jaqueline Peixoto</t>
+  </si>
+  <si>
+    <t>Noah Ruan Nascimento</t>
+  </si>
+  <si>
+    <t>Cauã Mateus Martin Rodrigues</t>
+  </si>
+  <si>
+    <t>Breno Tiago Pinto</t>
+  </si>
+  <si>
+    <t>Renan Mário Lima</t>
+  </si>
+  <si>
+    <t>Débora Sarah Isabelly de Paula</t>
+  </si>
+  <si>
+    <t>Marcos Vinicius Márcio Assunção</t>
+  </si>
+  <si>
+    <t>Agatha Milena Castro</t>
+  </si>
+  <si>
+    <t>Caroline Mariana Alessandra da Rosa</t>
+  </si>
+  <si>
+    <t>Ayla Sophia Nunes</t>
+  </si>
+  <si>
+    <t>Sophie Mariane dos Santos</t>
+  </si>
+  <si>
+    <t>Paulo João Araújo</t>
+  </si>
+  <si>
+    <t>Raquel Elaine Silva</t>
+  </si>
+  <si>
+    <t>Hadassa Agatha Maitê Almeida</t>
+  </si>
+  <si>
+    <t>Juliana Olivia Isabela Alves</t>
+  </si>
+  <si>
+    <t>Enrico Cauã Rafael Figueiredo</t>
+  </si>
+  <si>
+    <t>Luiza Maya Cecília Nascimento</t>
+  </si>
+  <si>
+    <t>Stefany Carla Rosângela Nascimento</t>
+  </si>
+  <si>
+    <t>Rafaela Tereza Patrícia Bernardes</t>
+  </si>
+  <si>
+    <t>Ian Luiz Gonçalves</t>
+  </si>
+  <si>
+    <t>Isis Raimunda Bianca Almeida</t>
+  </si>
+  <si>
+    <t>Renata Carolina Assunção</t>
+  </si>
+  <si>
+    <t>Malu Clara Melo</t>
   </si>
 </sst>
 </file>
@@ -543,8 +671,8 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,114 +720,114 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AI1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>55</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -799,8 +927,8 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -900,8 +1028,8 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="4">
         <v>0.5</v>
@@ -1001,8 +1129,8 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="B5" s="4">
         <v>0.5</v>
@@ -1105,8 +1233,8 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>57</v>
       </c>
       <c r="B6" s="4">
         <v>0.5</v>
@@ -1206,8 +1334,8 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
+      <c r="A7" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
@@ -1307,8 +1435,8 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="4">
         <v>0.5</v>
@@ -1408,8 +1536,8 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>50</v>
       </c>
       <c r="B9" s="4">
         <v>0.5</v>
@@ -1509,8 +1637,8 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="4">
         <v>0.5</v>
@@ -1610,8 +1738,8 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
+      <c r="A11" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="4">
         <v>0.5</v>
@@ -1711,8 +1839,8 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
+      <c r="A12" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="4">
         <v>0.5</v>
@@ -1812,8 +1940,8 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
+      <c r="A13" t="s">
+        <v>63</v>
       </c>
       <c r="B13" s="4">
         <v>0.5</v>
@@ -1913,8 +2041,8 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
+      <c r="A14" t="s">
+        <v>38</v>
       </c>
       <c r="B14" s="4">
         <v>0.5</v>
@@ -2014,8 +2142,8 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
+      <c r="A15" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="4">
         <v>0.5</v>
@@ -2115,8 +2243,8 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
+      <c r="A16" t="s">
+        <v>61</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
@@ -2216,8 +2344,8 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
+      <c r="A17" t="s">
+        <v>67</v>
       </c>
       <c r="B17" s="4">
         <v>0.5</v>
@@ -2314,8 +2442,8 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
+      <c r="A18" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="4">
         <v>0.5</v>
@@ -2415,8 +2543,8 @@
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
+      <c r="A19" t="s">
+        <v>68</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -2516,8 +2644,8 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
+      <c r="A20" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="4">
         <v>0.5</v>
@@ -2617,8 +2745,8 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
+      <c r="A21" t="s">
+        <v>42</v>
       </c>
       <c r="B21" s="4">
         <v>0.5</v>
@@ -2718,8 +2846,8 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
+      <c r="A22" t="s">
+        <v>64</v>
       </c>
       <c r="B22" s="4">
         <v>0.5</v>
@@ -2819,8 +2947,8 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
+      <c r="A23" t="s">
+        <v>70</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2920,8 +3048,8 @@
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
+      <c r="A24" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
@@ -3022,8 +3150,8 @@
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>25</v>
+      <c r="A25" t="s">
+        <v>41</v>
       </c>
       <c r="B25" s="4">
         <v>0.5</v>
@@ -3123,8 +3251,8 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
+      <c r="A26" t="s">
+        <v>49</v>
       </c>
       <c r="B26" s="4">
         <v>0.5</v>
@@ -3224,8 +3352,8 @@
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
+      <c r="A27" t="s">
+        <v>59</v>
       </c>
       <c r="B27" s="4">
         <v>0.5</v>
@@ -3322,8 +3450,8 @@
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
+      <c r="A28" t="s">
+        <v>66</v>
       </c>
       <c r="B28" s="4">
         <v>0.5</v>
@@ -3423,8 +3551,8 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>29</v>
+      <c r="A29" t="s">
+        <v>60</v>
       </c>
       <c r="B29" s="4">
         <v>0.5</v>
@@ -3527,8 +3655,8 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
+      <c r="A30" t="s">
+        <v>52</v>
       </c>
       <c r="B30" s="4">
         <v>0.5</v>
@@ -3628,8 +3756,8 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>31</v>
+      <c r="A31" t="s">
+        <v>69</v>
       </c>
       <c r="B31" s="4">
         <v>0.5</v>
@@ -3729,8 +3857,8 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
+      <c r="A32" t="s">
+        <v>48</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3830,8 +3958,8 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>33</v>
+      <c r="A33" t="s">
+        <v>58</v>
       </c>
       <c r="B33" s="4">
         <v>0.5</v>
@@ -3931,8 +4059,8 @@
       </c>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>34</v>
+      <c r="A34" t="s">
+        <v>65</v>
       </c>
       <c r="B34" s="4">
         <v>0.5</v>
@@ -4033,7 +4161,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
         <v>0.5</v>
@@ -4134,7 +4262,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4238,7 +4366,424 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543CF72-FD19-45FF-81A1-8E3EA04F2ABE}">
+  <dimension ref="A1:AN35"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:AN1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" t="str" cm="1">
+        <f t="array" ref="F1:AN1">TRANSPOSE(B1:B35)</f>
+        <v>Agatha Milena Castro</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Alexandre Matheus Gomes</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Antônia Lorena Raimunda Araújo</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Arthur Benício Duarte</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Ayla Sophia Nunes</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Breno Tiago Pinto</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Caroline Mariana Alessandra da Rosa</v>
+      </c>
+      <c r="M1" t="str">
+        <v>Cauã Mateus Martin Rodrigues</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Débora Sarah Isabelly de Paula</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Diego Thiago Cavalcanti</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Emilly Milena Mariana Corte Real</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Enrico Cauã Rafael Figueiredo</v>
+      </c>
+      <c r="R1" t="str">
+        <v>Geraldo Marcos Vinicius Igor Caldeira</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Geraldo Tiago José Cavalcanti</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Hadassa Agatha Maitê Almeida</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Ian Luiz Gonçalves</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Igor Yago da Mota</v>
+      </c>
+      <c r="W1" t="str">
+        <v>Isis Raimunda Bianca Almeida</v>
+      </c>
+      <c r="X1" t="str">
+        <v>Juliana Olivia Isabela Alves</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>Lucca Calebe Caldeira</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>Luiza Maya Cecília Nascimento</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>Malu Clara Melo</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>Marcos Vinicius Márcio Assunção</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>Marina Stefany Vieira</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>Noah Ruan Nascimento</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>Paulo João Araújo</v>
+      </c>
+      <c r="AF1" t="str">
+        <v>Rafaela Tereza Patrícia Bernardes</v>
+      </c>
+      <c r="AG1" t="str">
+        <v>Raquel Elaine Silva</v>
+      </c>
+      <c r="AH1" t="str">
+        <v>Renan Mário Lima</v>
+      </c>
+      <c r="AI1" t="str">
+        <v>Renata Carolina Assunção</v>
+      </c>
+      <c r="AJ1" t="str">
+        <v>Sarah Isabela Jaqueline Peixoto</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>Sophie Mariane dos Santos</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Stefany Carla Rosângela Nascimento</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>Vicente Marcos Marcelo Santos</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>Vitor Martin Souza</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B35">
+    <sortCondition ref="B1:B35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D147F668E56FB244826574F825DB7279" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55808e51bb9db1496f16f5694dd15cf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6f1e84e-bebf-4af4-8cb9-de618277deaf" xmlns:ns3="d2b3ba93-4d2e-467a-abbc-86a40de05c20" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9018f86609687b2f038eb56354ba86c0" ns2:_="" ns3:_="">
     <xsd:import namespace="a6f1e84e-bebf-4af4-8cb9-de618277deaf"/>
@@ -4431,15 +4976,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4447,6 +4983,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46B24070-65ED-4126-8CE2-480C64FDDD6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A77B178-1744-4698-8A33-5A2C033FB477}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4461,14 +5005,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46B24070-65ED-4126-8CE2-480C64FDDD6E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
